--- a/Documents/AppsMonitoring.xlsx
+++ b/Documents/AppsMonitoring.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VMUser\Desktop\PacificaAPI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F370AFDE-0596-49D0-B5AA-28DAD3782DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{5A8476A1-0881-407B-A7E6-30C9A8CD9069}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="34620" windowHeight="13905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,14 +34,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="168">
   <si>
     <t>a</t>
   </si>
@@ -569,11 +568,14 @@
   <si>
     <t>2. Employees Table (Excel Representation)</t>
   </si>
+  <si>
+    <t xml:space="preserve">TransactionReference </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -685,12 +687,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +707,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,21 +1026,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7332F6D6-C14A-442D-9D2E-1717D14E484B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="H7" sqref="H7:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1077,12 +1079,12 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1230,37 +1232,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973F1123-AF1B-4F70-8F7F-F1276C694D9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AH57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" customWidth="1"/>
-    <col min="17" max="17" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.90625" customWidth="1"/>
-    <col min="19" max="19" width="16.36328125" customWidth="1"/>
-    <col min="20" max="20" width="8.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.6328125" customWidth="1"/>
-    <col min="22" max="22" width="25.453125" customWidth="1"/>
-    <col min="23" max="23" width="8.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" customWidth="1"/>
-    <col min="26" max="26" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="14" customWidth="1"/>
+    <col min="21" max="21" width="32.5703125" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18">
@@ -1284,7 +1285,7 @@
       <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="19"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="2:18">
       <c r="F5" t="s">
@@ -1302,7 +1303,7 @@
       <c r="Q5" s="6">
         <v>500</v>
       </c>
-      <c r="R5" s="19"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="3" t="s">
@@ -1332,7 +1333,7 @@
       <c r="Q6" s="6">
         <v>500</v>
       </c>
-      <c r="R6" s="19"/>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="3" t="s">
@@ -1362,7 +1363,7 @@
       <c r="Q7" s="6">
         <v>500</v>
       </c>
-      <c r="R7" s="19"/>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="3" t="s">
@@ -1414,13 +1415,13 @@
       <c r="F10" s="8">
         <v>586</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="3" t="s">
@@ -1587,13 +1588,13 @@
       <c r="F15" s="8">
         <v>25</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="3" t="s">
@@ -1697,573 +1698,573 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="8:33" ht="17.5">
-      <c r="H25" s="12" t="s">
+    <row r="25" spans="8:33" ht="18">
+      <c r="H25" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="U25" s="18" t="s">
+      <c r="U25" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="8:33" ht="29">
-      <c r="H27" s="13" t="s">
+    <row r="27" spans="8:33" ht="30">
+      <c r="H27" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="13" t="s">
+      <c r="O27" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="V27" s="13" t="s">
+      <c r="V27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="W27" s="13" t="s">
+      <c r="W27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="X27" s="13" t="s">
+      <c r="X27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y27" s="13" t="s">
+      <c r="Y27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z27" s="13" t="s">
+      <c r="Z27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA27" s="13" t="s">
+      <c r="AA27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB27" s="13" t="s">
+      <c r="AB27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AC27" s="13" t="s">
+      <c r="AC27" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AD27" s="13" t="s">
+      <c r="AD27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AE27" s="13" t="s">
+      <c r="AE27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AF27" s="13" t="s">
+      <c r="AF27" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AG27" s="13" t="s">
+      <c r="AG27" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="8:33">
-      <c r="H28" s="17">
+    <row r="28" spans="8:33" ht="30">
+      <c r="H28" s="15">
         <v>1</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="12">
         <v>500</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="12">
         <v>600</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="13">
         <v>45689</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="12">
         <v>50</v>
       </c>
-      <c r="O28" s="14" t="s">
+      <c r="O28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="12">
         <v>348230749</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="13">
         <v>45839</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="12">
         <v>101</v>
       </c>
-      <c r="T28" s="17">
+      <c r="T28" s="15">
         <v>1</v>
       </c>
-      <c r="U28" s="14" t="s">
+      <c r="U28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="V28" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="W28" s="17">
+      <c r="W28" s="15">
         <v>1</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28" s="12">
         <v>100</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="Y28" s="12">
         <v>150</v>
       </c>
-      <c r="Z28" s="14">
+      <c r="Z28" s="12">
         <v>50</v>
       </c>
-      <c r="AA28" s="14" t="s">
+      <c r="AA28" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AB28" s="15">
+      <c r="AB28" s="13">
         <v>45200</v>
       </c>
-      <c r="AC28" s="15">
+      <c r="AC28" s="13">
         <v>45200</v>
       </c>
-      <c r="AD28" s="17">
+      <c r="AD28" s="15">
         <v>10</v>
       </c>
-      <c r="AE28" s="17">
+      <c r="AE28" s="15">
         <v>5</v>
       </c>
-      <c r="AF28" s="14" t="s">
+      <c r="AF28" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AG28" s="14">
+      <c r="AG28" s="12">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="8:33" ht="29">
-      <c r="H29" s="17">
+    <row r="29" spans="8:33" ht="30">
+      <c r="H29" s="15">
         <v>2</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="12">
         <v>500</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="12">
         <v>600</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="13">
         <v>45689</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="12">
         <v>50</v>
       </c>
-      <c r="O29" s="14" t="s">
+      <c r="O29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="12">
         <v>113213213</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="13">
         <v>45931</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="12">
         <v>102</v>
       </c>
-      <c r="T29" s="17">
+      <c r="T29" s="15">
         <v>2</v>
       </c>
-      <c r="U29" s="14" t="s">
+      <c r="U29" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="V29" s="14" t="s">
+      <c r="V29" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="W29" s="17">
+      <c r="W29" s="15">
         <v>1</v>
       </c>
-      <c r="X29" s="14">
+      <c r="X29" s="12">
         <v>120</v>
       </c>
-      <c r="Y29" s="14">
+      <c r="Y29" s="12">
         <v>180</v>
       </c>
-      <c r="Z29" s="14">
+      <c r="Z29" s="12">
         <v>30</v>
       </c>
-      <c r="AA29" s="14" t="s">
+      <c r="AA29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AB29" s="15">
+      <c r="AB29" s="13">
         <v>45201</v>
       </c>
-      <c r="AC29" s="15">
+      <c r="AC29" s="13">
         <v>45201</v>
       </c>
-      <c r="AD29" s="17">
+      <c r="AD29" s="15">
         <v>15</v>
       </c>
-      <c r="AE29" s="17">
+      <c r="AE29" s="15">
         <v>5</v>
       </c>
-      <c r="AF29" s="14" t="s">
+      <c r="AF29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AG29" s="14">
+      <c r="AG29" s="12">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="8:33">
-      <c r="H30" s="17">
+    <row r="30" spans="8:33" ht="30">
+      <c r="H30" s="15">
         <v>1</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <v>500</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="12">
         <v>600</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="13">
         <v>45689</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="12">
         <v>50</v>
       </c>
-      <c r="O30" s="14" t="s">
+      <c r="O30" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14">
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12">
         <v>103</v>
       </c>
-      <c r="T30" s="17">
+      <c r="T30" s="15">
         <v>3</v>
       </c>
-      <c r="U30" s="14" t="s">
+      <c r="U30" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="V30" s="14" t="s">
+      <c r="V30" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W30" s="17">
+      <c r="W30" s="15">
         <v>2</v>
       </c>
-      <c r="X30" s="14">
+      <c r="X30" s="12">
         <v>150</v>
       </c>
-      <c r="Y30" s="14">
+      <c r="Y30" s="12">
         <v>220</v>
       </c>
-      <c r="Z30" s="14">
+      <c r="Z30" s="12">
         <v>25</v>
       </c>
-      <c r="AA30" s="14" t="s">
+      <c r="AA30" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AB30" s="15">
+      <c r="AB30" s="13">
         <v>45202</v>
       </c>
-      <c r="AC30" s="15">
+      <c r="AC30" s="13">
         <v>45202</v>
       </c>
-      <c r="AD30" s="17">
+      <c r="AD30" s="15">
         <v>20</v>
       </c>
-      <c r="AE30" s="17">
+      <c r="AE30" s="15">
         <v>10</v>
       </c>
-      <c r="AF30" s="14" t="s">
+      <c r="AF30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AG30" s="14">
+      <c r="AG30" s="12">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="8:33">
-      <c r="H31" s="17">
+    <row r="31" spans="8:33" ht="30">
+      <c r="H31" s="15">
         <v>3</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="12">
         <v>500</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="12">
         <v>600</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="13">
         <v>45689</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="12">
         <v>50</v>
       </c>
-      <c r="O31" s="14" t="s">
+      <c r="O31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14">
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12">
         <v>102</v>
       </c>
-      <c r="T31" s="17">
+      <c r="T31" s="15">
         <v>4</v>
       </c>
-      <c r="U31" s="14" t="s">
+      <c r="U31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="V31" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W31" s="17">
+      <c r="W31" s="15">
         <v>2</v>
       </c>
-      <c r="X31" s="14">
+      <c r="X31" s="12">
         <v>140</v>
       </c>
-      <c r="Y31" s="14">
+      <c r="Y31" s="12">
         <v>200</v>
       </c>
-      <c r="Z31" s="14">
+      <c r="Z31" s="12">
         <v>40</v>
       </c>
-      <c r="AA31" s="14" t="s">
+      <c r="AA31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AB31" s="15">
+      <c r="AB31" s="13">
         <v>45203</v>
       </c>
-      <c r="AC31" s="15">
+      <c r="AC31" s="13">
         <v>45203</v>
       </c>
-      <c r="AD31" s="17">
+      <c r="AD31" s="15">
         <v>25</v>
       </c>
-      <c r="AE31" s="17">
+      <c r="AE31" s="15">
         <v>15</v>
       </c>
-      <c r="AF31" s="14" t="s">
+      <c r="AF31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AG31" s="14">
+      <c r="AG31" s="12">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="8:33">
-      <c r="R32" s="14">
+    <row r="32" spans="8:33" ht="30">
+      <c r="R32" s="12">
         <v>102</v>
       </c>
-      <c r="T32" s="17">
+      <c r="T32" s="15">
         <v>5</v>
       </c>
-      <c r="U32" s="14" t="s">
+      <c r="U32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="V32" s="14" t="s">
+      <c r="V32" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="W32" s="17">
+      <c r="W32" s="15">
         <v>3</v>
       </c>
-      <c r="X32" s="14">
+      <c r="X32" s="12">
         <v>100</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Y32" s="12">
         <v>160</v>
       </c>
-      <c r="Z32" s="14">
+      <c r="Z32" s="12">
         <v>20</v>
       </c>
-      <c r="AA32" s="14" t="s">
+      <c r="AA32" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AB32" s="15">
+      <c r="AB32" s="13">
         <v>45204</v>
       </c>
-      <c r="AC32" s="15">
+      <c r="AC32" s="13">
         <v>45204</v>
       </c>
-      <c r="AD32" s="17">
+      <c r="AD32" s="15">
         <v>12</v>
       </c>
-      <c r="AE32" s="17">
+      <c r="AE32" s="15">
         <v>8</v>
       </c>
-      <c r="AF32" s="14" t="s">
+      <c r="AF32" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AG32" s="14">
+      <c r="AG32" s="12">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="12:26" ht="17.5">
-      <c r="L35" s="12" t="s">
+    <row r="35" spans="12:26" ht="18">
+      <c r="L35" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="U35" s="18" t="s">
+      <c r="U35" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="12:26" ht="29">
-      <c r="L36" s="13" t="s">
+    <row r="36" spans="12:26" ht="30">
+      <c r="L36" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="N36" s="13" t="s">
+      <c r="N36" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="O36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U36" s="13" t="s">
+      <c r="U36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="V36" s="13" t="s">
+      <c r="V36" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="W36" s="13" t="s">
+      <c r="W36" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="X36" s="13" t="s">
+      <c r="X36" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="12:26" ht="29">
-      <c r="L37" s="14" t="s">
+    <row r="37" spans="12:26" ht="30">
+      <c r="L37" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="12">
         <v>1</v>
       </c>
-      <c r="T37" s="17">
+      <c r="T37" s="15">
         <v>1</v>
       </c>
-      <c r="U37" s="14" t="s">
+      <c r="U37" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="V37" s="14" t="s">
+      <c r="V37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="W37" s="14">
+      <c r="W37" s="12">
         <v>101</v>
       </c>
-      <c r="X37" s="14" t="b">
+      <c r="X37" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="12:26" ht="29">
-      <c r="L38" s="14" t="s">
+    <row r="38" spans="12:26" ht="45">
+      <c r="L38" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="O38" s="14" t="s">
+      <c r="O38" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="T38" s="17">
+      <c r="T38" s="15">
         <v>2</v>
       </c>
-      <c r="U38" s="14" t="s">
+      <c r="U38" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="V38" s="14" t="s">
+      <c r="V38" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W38" s="12">
         <v>102</v>
       </c>
-      <c r="X38" s="14" t="b">
+      <c r="X38" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="12:26" ht="29">
-      <c r="L39" s="14" t="s">
+    <row r="39" spans="12:26" ht="45">
+      <c r="L39" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="M39" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="N39" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="O39" s="14" t="s">
+      <c r="O39" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="T39" s="17">
+      <c r="T39" s="15">
         <v>3</v>
       </c>
-      <c r="U39" s="14" t="s">
+      <c r="U39" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="V39" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W39" s="12">
         <v>103</v>
       </c>
-      <c r="X39" s="14" t="b">
+      <c r="X39" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="12:26" ht="29">
-      <c r="L40" s="14" t="s">
+    <row r="40" spans="12:26" ht="30">
+      <c r="L40" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="M40" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="N40" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2274,459 +2275,459 @@
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="12:26">
-      <c r="U42" s="18" t="s">
+      <c r="U42" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="12:26" ht="29">
-      <c r="T43" s="13" t="s">
+    <row r="43" spans="12:26" ht="30">
+      <c r="T43" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U43" s="13" t="s">
+      <c r="U43" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="V43" s="13" t="s">
+      <c r="V43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="W43" s="13" t="s">
+      <c r="W43" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="X43" s="13" t="s">
+      <c r="X43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y43" s="13" t="s">
+      <c r="Y43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="13" t="s">
+      <c r="Z43" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="12:26">
-      <c r="T44" s="14">
+      <c r="T44" s="12">
         <v>1</v>
       </c>
-      <c r="U44" s="14">
+      <c r="U44" s="12">
         <v>1</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V44" s="12">
         <v>100</v>
       </c>
-      <c r="W44" s="14">
+      <c r="W44" s="12">
         <v>150</v>
       </c>
-      <c r="X44" s="14">
+      <c r="X44" s="12">
         <v>50</v>
       </c>
-      <c r="Y44" s="14" t="s">
+      <c r="Y44" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Z44" s="15">
+      <c r="Z44" s="13">
         <v>45200</v>
       </c>
     </row>
     <row r="45" spans="12:26">
-      <c r="T45" s="14">
+      <c r="T45" s="12">
         <v>1</v>
       </c>
-      <c r="U45" s="14">
+      <c r="U45" s="12">
         <v>2</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V45" s="12">
         <v>120</v>
       </c>
-      <c r="W45" s="14">
+      <c r="W45" s="12">
         <v>180</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X45" s="12">
         <v>25</v>
       </c>
-      <c r="Y45" s="14" t="s">
+      <c r="Y45" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Z45" s="15">
+      <c r="Z45" s="13">
         <v>45201</v>
       </c>
     </row>
     <row r="46" spans="12:26">
-      <c r="T46" s="14">
+      <c r="T46" s="12">
         <v>2</v>
       </c>
-      <c r="U46" s="14">
+      <c r="U46" s="12">
         <v>1</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V46" s="12">
         <v>105</v>
       </c>
-      <c r="W46" s="14">
+      <c r="W46" s="12">
         <v>155</v>
       </c>
-      <c r="X46" s="14">
+      <c r="X46" s="12">
         <v>30</v>
       </c>
-      <c r="Y46" s="14" t="s">
+      <c r="Y46" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Z46" s="15">
+      <c r="Z46" s="13">
         <v>45201</v>
       </c>
     </row>
     <row r="47" spans="12:26">
-      <c r="T47" s="14">
+      <c r="T47" s="12">
         <v>2</v>
       </c>
-      <c r="U47" s="14">
+      <c r="U47" s="12">
         <v>3</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="12">
         <v>140</v>
       </c>
-      <c r="W47" s="14">
+      <c r="W47" s="12">
         <v>210</v>
       </c>
-      <c r="X47" s="14">
+      <c r="X47" s="12">
         <v>40</v>
       </c>
-      <c r="Y47" s="14" t="s">
+      <c r="Y47" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Z47" s="15">
+      <c r="Z47" s="13">
         <v>45202</v>
       </c>
     </row>
     <row r="48" spans="12:26">
-      <c r="T48" s="14">
+      <c r="T48" s="12">
         <v>3</v>
       </c>
-      <c r="U48" s="14" t="s">
+      <c r="U48" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V48" s="12">
         <v>110</v>
       </c>
-      <c r="W48" s="14">
+      <c r="W48" s="12">
         <v>160</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X48" s="12">
         <v>20</v>
       </c>
-      <c r="Y48" s="14" t="s">
+      <c r="Y48" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Z48" s="15">
+      <c r="Z48" s="13">
         <v>45202</v>
       </c>
     </row>
     <row r="49" spans="20:34">
-      <c r="T49" s="14">
+      <c r="T49" s="12">
         <v>3</v>
       </c>
-      <c r="U49" s="14">
+      <c r="U49" s="12">
         <v>2</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="12">
         <v>125</v>
       </c>
-      <c r="W49" s="14">
+      <c r="W49" s="12">
         <v>190</v>
       </c>
-      <c r="X49" s="14">
+      <c r="X49" s="12">
         <v>15</v>
       </c>
-      <c r="Y49" s="14" t="s">
+      <c r="Y49" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Z49" s="15">
+      <c r="Z49" s="13">
         <v>45201</v>
       </c>
     </row>
-    <row r="51" spans="20:34" ht="17.5">
+    <row r="51" spans="20:34" ht="18">
       <c r="T51"/>
-      <c r="U51" s="12" t="s">
+      <c r="U51" s="10" t="s">
         <v>91</v>
       </c>
       <c r="W51"/>
       <c r="AD51"/>
       <c r="AE51"/>
     </row>
-    <row r="52" spans="20:34" ht="29">
-      <c r="T52" s="13" t="s">
+    <row r="52" spans="20:34" ht="30">
+      <c r="T52" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="U52" s="13" t="s">
+      <c r="U52" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="V52" s="13" t="s">
+      <c r="V52" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="W52" s="13" t="s">
+      <c r="W52" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="X52" s="13" t="s">
+      <c r="X52" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Y52" s="13" t="s">
+      <c r="Y52" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Z52" s="13" t="s">
+      <c r="Z52" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AA52" s="13" t="s">
+      <c r="AA52" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AB52" s="13" t="s">
+      <c r="AB52" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AC52" s="13" t="s">
+      <c r="AC52" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AD52" s="13" t="s">
+      <c r="AD52" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="AE52" s="13" t="s">
+      <c r="AE52" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="AF52" s="13" t="s">
+      <c r="AF52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="AG52" s="13" t="s">
+      <c r="AG52" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="AH52" s="13" t="s">
+      <c r="AH52" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="20:34" ht="43.5">
-      <c r="T53" s="14">
+    <row r="53" spans="20:34" ht="45">
+      <c r="T53" s="12">
         <v>1</v>
       </c>
-      <c r="U53" s="14" t="s">
+      <c r="U53" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="V53" s="14" t="s">
+      <c r="V53" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="W53" s="14" t="s">
+      <c r="W53" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="X53" s="14" t="s">
+      <c r="X53" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="Y53" s="14" t="s">
+      <c r="Y53" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="Z53" s="14" t="s">
+      <c r="Z53" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AA53" s="14" t="s">
+      <c r="AA53" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AB53" s="14">
+      <c r="AB53" s="12">
         <v>1000</v>
       </c>
-      <c r="AC53" s="14" t="s">
+      <c r="AC53" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AD53" s="14" t="s">
+      <c r="AD53" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AE53" s="14" t="s">
+      <c r="AE53" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AF53" s="14" t="s">
+      <c r="AF53" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AG53" s="15">
+      <c r="AG53" s="13">
         <v>44927</v>
       </c>
-      <c r="AH53" s="15">
+      <c r="AH53" s="13">
         <v>45200</v>
       </c>
     </row>
-    <row r="54" spans="20:34" ht="43.5">
-      <c r="T54" s="14">
+    <row r="54" spans="20:34" ht="45">
+      <c r="T54" s="12">
         <v>2</v>
       </c>
-      <c r="U54" s="14" t="s">
+      <c r="U54" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V54" s="14" t="s">
+      <c r="V54" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W54" s="14" t="s">
+      <c r="W54" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X54" s="14" t="s">
+      <c r="X54" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Y54" s="14" t="s">
+      <c r="Y54" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Z54" s="14" t="s">
+      <c r="Z54" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AA54" s="14" t="s">
+      <c r="AA54" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AB54" s="14">
+      <c r="AB54" s="12">
         <v>1100</v>
       </c>
-      <c r="AC54" s="14" t="s">
+      <c r="AC54" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AD54" s="14" t="s">
+      <c r="AD54" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AE54" s="14" t="s">
+      <c r="AE54" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AF54" s="14" t="s">
+      <c r="AF54" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AG54" s="15">
+      <c r="AG54" s="13">
         <v>44972</v>
       </c>
-      <c r="AH54" s="15">
+      <c r="AH54" s="13">
         <v>45204</v>
       </c>
     </row>
-    <row r="55" spans="20:34" ht="43.5">
-      <c r="T55" s="14">
+    <row r="55" spans="20:34" ht="60">
+      <c r="T55" s="12">
         <v>3</v>
       </c>
-      <c r="U55" s="14" t="s">
+      <c r="U55" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="V55" s="14" t="s">
+      <c r="V55" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="W55" s="14" t="s">
+      <c r="W55" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="X55" s="14" t="s">
+      <c r="X55" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="Y55" s="14" t="s">
+      <c r="Y55" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="Z55" s="14" t="s">
+      <c r="Z55" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AA55" s="14" t="s">
+      <c r="AA55" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AB55" s="14">
+      <c r="AB55" s="12">
         <v>6000</v>
       </c>
-      <c r="AC55" s="14" t="s">
+      <c r="AC55" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AD55" s="14" t="s">
+      <c r="AD55" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AE55" s="14" t="s">
+      <c r="AE55" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AF55" s="14" t="s">
+      <c r="AF55" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AG55" s="15">
+      <c r="AG55" s="13">
         <v>44986</v>
       </c>
-      <c r="AH55" s="15">
+      <c r="AH55" s="13">
         <v>45201</v>
       </c>
     </row>
-    <row r="56" spans="20:34" ht="43.5">
-      <c r="T56" s="14">
+    <row r="56" spans="20:34" ht="45">
+      <c r="T56" s="12">
         <v>4</v>
       </c>
-      <c r="U56" s="14" t="s">
+      <c r="U56" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="V56" s="14" t="s">
+      <c r="V56" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="W56" s="14" t="s">
+      <c r="W56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="X56" s="14" t="s">
+      <c r="X56" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="Y56" s="14" t="s">
+      <c r="Y56" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="Z56" s="14" t="s">
+      <c r="Z56" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AA56" s="14" t="s">
+      <c r="AA56" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AB56" s="14">
+      <c r="AB56" s="12">
         <v>1630</v>
       </c>
-      <c r="AC56" s="14" t="s">
+      <c r="AC56" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AD56" s="14" t="s">
+      <c r="AD56" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AE56" s="14" t="s">
+      <c r="AE56" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AF56" s="14" t="s">
+      <c r="AF56" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AG56" s="15">
+      <c r="AG56" s="13">
         <v>45026</v>
       </c>
-      <c r="AH56" s="15">
+      <c r="AH56" s="13">
         <v>45202</v>
       </c>
     </row>
-    <row r="57" spans="20:34" ht="43.5">
-      <c r="T57" s="14">
+    <row r="57" spans="20:34" ht="45">
+      <c r="T57" s="12">
         <v>5</v>
       </c>
-      <c r="U57" s="14" t="s">
+      <c r="U57" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="V57" s="14" t="s">
+      <c r="V57" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="W57" s="14" t="s">
+      <c r="W57" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="X57" s="14" t="s">
+      <c r="X57" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="Y57" s="14" t="s">
+      <c r="Y57" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="Z57" s="14" t="s">
+      <c r="Z57" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="AA57" s="14" t="s">
+      <c r="AA57" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AB57" s="14">
+      <c r="AB57" s="12">
         <v>1227</v>
       </c>
-      <c r="AC57" s="14" t="s">
+      <c r="AC57" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AD57" s="14" t="s">
+      <c r="AD57" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="AE57" s="14" t="s">
+      <c r="AE57" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AF57" s="14" t="s">
+      <c r="AF57" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AG57" s="15">
+      <c r="AG57" s="13">
         <v>45061</v>
       </c>
-      <c r="AH57" s="15">
+      <c r="AH57" s="13">
         <v>45206</v>
       </c>
     </row>

--- a/Documents/AppsMonitoring.xlsx
+++ b/Documents/AppsMonitoring.xlsx
@@ -661,158 +661,158 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,34 +1122,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="51" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="51" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="36" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="36" width="18.14785714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="40" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="36" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="51" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="40" width="9.43357142857143" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="40" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="44"/>
       <c r="I1" s="44"/>
       <c r="J1" s="3"/>
@@ -1157,17 +1157,17 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
       <c r="J2" s="3"/>
@@ -1175,19 +1175,19 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="3"/>
       <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="43"/>
       <c r="H3" s="44"/>
       <c r="I3" s="44"/>
       <c r="J3" s="3"/>
@@ -1195,21 +1195,21 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="3"/>
       <c r="F4" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="43" t="s">
         <v>166</v>
       </c>
       <c r="H4" s="44" t="s">
@@ -1225,19 +1225,19 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
       <c r="E5" s="3"/>
       <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="44"/>
       <c r="I5" s="44"/>
       <c r="J5" s="3"/>
@@ -1245,17 +1245,17 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
       <c r="J6" s="3"/>
@@ -1263,19 +1263,19 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="45" t="s">
         <v>168</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="46"/>
       <c r="F7" s="46"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="13" t="s">
         <v>7</v>
       </c>
@@ -1297,12 +1297,12 @@
       <c r="N7" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="47" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="F8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1337,14 +1337,14 @@
       <c r="N8" s="15">
         <f>K8*L8</f>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="49">
         <f>J</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="47" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="F9" s="50">
         <v>10000</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
@@ -1365,19 +1365,19 @@
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="47"/>
       <c r="D10" s="47" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
@@ -1385,17 +1385,17 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
@@ -1403,17 +1403,17 @@
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
@@ -1421,17 +1421,17 @@
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="14"/>
@@ -1439,8 +1439,8 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1488,17 +1488,17 @@
     <col min="25" max="25" style="41" width="9.576428571428572" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="41" width="13.43357142857143" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="42" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="43" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="35" width="8.43357142857143" customWidth="1" bestFit="1"/>
     <col min="29" max="29" style="39" width="9.43357142857143" customWidth="1" bestFit="1"/>
     <col min="30" max="30" style="42" width="9.43357142857143" customWidth="1" bestFit="1"/>
     <col min="31" max="31" style="41" width="8.576428571428572" customWidth="1" bestFit="1"/>
     <col min="32" max="32" style="41" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="43" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="35" width="8.43357142857143" customWidth="1" bestFit="1"/>
     <col min="34" max="34" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="35" max="35" style="42" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1535,7 +1535,7 @@
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1572,7 +1572,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -2255,7 +2255,7 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="47.25">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
         <v>12</v>
@@ -2430,7 +2430,7 @@
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2467,7 +2467,7 @@
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2504,7 +2504,7 @@
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2541,7 +2541,7 @@
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2578,7 +2578,7 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2615,7 +2615,7 @@
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2652,7 +2652,7 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="23.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2693,7 +2693,7 @@
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2730,7 +2730,7 @@
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="47.25" customFormat="1" s="25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="AI27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="33.75" customFormat="1" s="25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="AI28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="33.75" customFormat="1" s="25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="AI29" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="33.75" customFormat="1" s="25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
